--- a/nr-test-ml-datatypes/ig/CodeSystem-competence-code-system.xlsx
+++ b/nr-test-ml-datatypes/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T08:38:31+00:00</t>
+    <t>2025-08-11T09:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ml-datatypes/ig/CodeSystem-competence-code-system.xlsx
+++ b/nr-test-ml-datatypes/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T09:04:25+00:00</t>
+    <t>2025-08-11T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ml-datatypes/ig/CodeSystem-competence-code-system.xlsx
+++ b/nr-test-ml-datatypes/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T09:07:42+00:00</t>
+    <t>2025-08-19T08:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
